--- a/data/ETP_VC_2021.xlsx
+++ b/data/ETP_VC_2021.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\# Jvasco\Visualization\Vale de Cavalos\data\weather-data\weather-station\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\# Jvasco\Visualization\Vale de Cavalos\rmarkdown-weather\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D6CF107-0A0A-49C0-8740-301BF3E98240}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E36F431F-091E-47CF-BD10-6002A1621C98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="13759" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataExp" sheetId="1" r:id="rId1"/>
@@ -115,10 +115,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0"/>
-  </numFmts>
-  <fonts count="18">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -250,6 +247,13 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -615,7 +619,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -997,16 +1001,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z366"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="64" zoomScaleNormal="64" workbookViewId="0">
-      <selection activeCell="AG16" sqref="AG16"/>
+    <sheetView tabSelected="1" topLeftCell="A244" zoomScale="64" zoomScaleNormal="64" workbookViewId="0">
+      <selection activeCell="AB260" sqref="AB260"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.05"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1086,7 +1090,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:26">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>44197</v>
       </c>
@@ -1166,7 +1170,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="3" spans="1:26">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>44198</v>
       </c>
@@ -1246,7 +1250,7 @@
         <v>1.1599999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:26">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>44199</v>
       </c>
@@ -1326,7 +1330,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:26">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>44200</v>
       </c>
@@ -1406,7 +1410,7 @@
         <v>1.1299999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:26">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>44201</v>
       </c>
@@ -1486,7 +1490,7 @@
         <v>1.06</v>
       </c>
     </row>
-    <row r="7" spans="1:26">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>44202</v>
       </c>
@@ -1566,7 +1570,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="8" spans="1:26">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>44203</v>
       </c>
@@ -1646,7 +1650,7 @@
         <v>1.39</v>
       </c>
     </row>
-    <row r="9" spans="1:26">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>44204</v>
       </c>
@@ -1726,7 +1730,7 @@
         <v>1.35</v>
       </c>
     </row>
-    <row r="10" spans="1:26">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>44205</v>
       </c>
@@ -1806,7 +1810,7 @@
         <v>1.24</v>
       </c>
     </row>
-    <row r="11" spans="1:26">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>44206</v>
       </c>
@@ -1886,7 +1890,7 @@
         <v>1.24</v>
       </c>
     </row>
-    <row r="12" spans="1:26">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>44207</v>
       </c>
@@ -1966,7 +1970,7 @@
         <v>1.1599999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:26">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>44208</v>
       </c>
@@ -2046,7 +2050,7 @@
         <v>1.1200000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:26">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>44209</v>
       </c>
@@ -2126,7 +2130,7 @@
         <v>1.1399999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:26">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>44210</v>
       </c>
@@ -2206,7 +2210,7 @@
         <v>1.31</v>
       </c>
     </row>
-    <row r="16" spans="1:26">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>44211</v>
       </c>
@@ -2286,7 +2290,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="17" spans="1:26">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>44212</v>
       </c>
@@ -2366,7 +2370,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="18" spans="1:26">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>44213</v>
       </c>
@@ -2446,7 +2450,7 @@
         <v>1.23</v>
       </c>
     </row>
-    <row r="19" spans="1:26">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>44214</v>
       </c>
@@ -2526,7 +2530,7 @@
         <v>1.24</v>
       </c>
     </row>
-    <row r="20" spans="1:26">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>44215</v>
       </c>
@@ -2606,7 +2610,7 @@
         <v>1.27</v>
       </c>
     </row>
-    <row r="21" spans="1:26">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>44216</v>
       </c>
@@ -2686,7 +2690,7 @@
         <v>1.48</v>
       </c>
     </row>
-    <row r="22" spans="1:26">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>44217</v>
       </c>
@@ -2766,7 +2770,7 @@
         <v>1.37</v>
       </c>
     </row>
-    <row r="23" spans="1:26">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>44218</v>
       </c>
@@ -2846,7 +2850,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="24" spans="1:26">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>44219</v>
       </c>
@@ -2926,7 +2930,7 @@
         <v>1.32</v>
       </c>
     </row>
-    <row r="25" spans="1:26">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>44220</v>
       </c>
@@ -3006,7 +3010,7 @@
         <v>1.51</v>
       </c>
     </row>
-    <row r="26" spans="1:26">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>44221</v>
       </c>
@@ -3086,7 +3090,7 @@
         <v>1.47</v>
       </c>
     </row>
-    <row r="27" spans="1:26">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>44222</v>
       </c>
@@ -3166,7 +3170,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="28" spans="1:26">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>44223</v>
       </c>
@@ -3246,7 +3250,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="29" spans="1:26">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>44224</v>
       </c>
@@ -3326,7 +3330,7 @@
         <v>1.55</v>
       </c>
     </row>
-    <row r="30" spans="1:26">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>44225</v>
       </c>
@@ -3406,7 +3410,7 @@
         <v>1.43</v>
       </c>
     </row>
-    <row r="31" spans="1:26">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>44226</v>
       </c>
@@ -3486,7 +3490,7 @@
         <v>1.72</v>
       </c>
     </row>
-    <row r="32" spans="1:26">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>44227</v>
       </c>
@@ -3566,7 +3570,7 @@
         <v>1.54</v>
       </c>
     </row>
-    <row r="33" spans="1:26">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>44228</v>
       </c>
@@ -3646,7 +3650,7 @@
         <v>1.59</v>
       </c>
     </row>
-    <row r="34" spans="1:26">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>44229</v>
       </c>
@@ -3726,7 +3730,7 @@
         <v>1.61</v>
       </c>
     </row>
-    <row r="35" spans="1:26">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>44230</v>
       </c>
@@ -3806,7 +3810,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="36" spans="1:26">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>44231</v>
       </c>
@@ -3886,7 +3890,7 @@
         <v>1.46</v>
       </c>
     </row>
-    <row r="37" spans="1:26">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>44232</v>
       </c>
@@ -3966,7 +3970,7 @@
         <v>1.37</v>
       </c>
     </row>
-    <row r="38" spans="1:26">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>44233</v>
       </c>
@@ -4046,7 +4050,7 @@
         <v>1.44</v>
       </c>
     </row>
-    <row r="39" spans="1:26">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>44234</v>
       </c>
@@ -4126,7 +4130,7 @@
         <v>1.38</v>
       </c>
     </row>
-    <row r="40" spans="1:26">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>44235</v>
       </c>
@@ -4206,7 +4210,7 @@
         <v>1.59</v>
       </c>
     </row>
-    <row r="41" spans="1:26">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>44236</v>
       </c>
@@ -4286,7 +4290,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="42" spans="1:26">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>44237</v>
       </c>
@@ -4366,7 +4370,7 @@
         <v>1.58</v>
       </c>
     </row>
-    <row r="43" spans="1:26">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>44238</v>
       </c>
@@ -4446,7 +4450,7 @@
         <v>1.54</v>
       </c>
     </row>
-    <row r="44" spans="1:26">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>44239</v>
       </c>
@@ -4526,7 +4530,7 @@
         <v>1.87</v>
       </c>
     </row>
-    <row r="45" spans="1:26">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>44240</v>
       </c>
@@ -4606,7 +4610,7 @@
         <v>1.74</v>
       </c>
     </row>
-    <row r="46" spans="1:26">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>44241</v>
       </c>
@@ -4686,7 +4690,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:26">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <v>44242</v>
       </c>
@@ -4766,7 +4770,7 @@
         <v>2.12</v>
       </c>
     </row>
-    <row r="48" spans="1:26">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>44243</v>
       </c>
@@ -4846,7 +4850,7 @@
         <v>1.55</v>
       </c>
     </row>
-    <row r="49" spans="1:26">
+    <row r="49" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <v>44244</v>
       </c>
@@ -4926,7 +4930,7 @@
         <v>1.58</v>
       </c>
     </row>
-    <row r="50" spans="1:26">
+    <row r="50" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <v>44245</v>
       </c>
@@ -5006,7 +5010,7 @@
         <v>1.65</v>
       </c>
     </row>
-    <row r="51" spans="1:26">
+    <row r="51" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>44246</v>
       </c>
@@ -5086,7 +5090,7 @@
         <v>1.77</v>
       </c>
     </row>
-    <row r="52" spans="1:26">
+    <row r="52" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <v>44247</v>
       </c>
@@ -5166,7 +5170,7 @@
         <v>1.55</v>
       </c>
     </row>
-    <row r="53" spans="1:26">
+    <row r="53" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <v>44248</v>
       </c>
@@ -5246,7 +5250,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="54" spans="1:26">
+    <row r="54" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <v>44249</v>
       </c>
@@ -5326,7 +5330,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="55" spans="1:26">
+    <row r="55" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <v>44250</v>
       </c>
@@ -5406,7 +5410,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="56" spans="1:26">
+    <row r="56" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <v>44251</v>
       </c>
@@ -5486,7 +5490,7 @@
         <v>2.0499999999999998</v>
       </c>
     </row>
-    <row r="57" spans="1:26">
+    <row r="57" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <v>44252</v>
       </c>
@@ -5566,7 +5570,7 @@
         <v>1.56</v>
       </c>
     </row>
-    <row r="58" spans="1:26">
+    <row r="58" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <v>44253</v>
       </c>
@@ -5646,7 +5650,7 @@
         <v>1.58</v>
       </c>
     </row>
-    <row r="59" spans="1:26">
+    <row r="59" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <v>44254</v>
       </c>
@@ -5726,7 +5730,7 @@
         <v>2.2200000000000002</v>
       </c>
     </row>
-    <row r="60" spans="1:26">
+    <row r="60" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <v>44255</v>
       </c>
@@ -5806,7 +5810,7 @@
         <v>1.92</v>
       </c>
     </row>
-    <row r="61" spans="1:26">
+    <row r="61" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <v>44256</v>
       </c>
@@ -5886,7 +5890,7 @@
         <v>1.91</v>
       </c>
     </row>
-    <row r="62" spans="1:26">
+    <row r="62" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <v>44257</v>
       </c>
@@ -5966,7 +5970,7 @@
         <v>2.0699999999999998</v>
       </c>
     </row>
-    <row r="63" spans="1:26">
+    <row r="63" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <v>44258</v>
       </c>
@@ -6046,7 +6050,7 @@
         <v>2.0499999999999998</v>
       </c>
     </row>
-    <row r="64" spans="1:26">
+    <row r="64" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <v>44259</v>
       </c>
@@ -6126,7 +6130,7 @@
         <v>1.63</v>
       </c>
     </row>
-    <row r="65" spans="1:26">
+    <row r="65" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
         <v>44260</v>
       </c>
@@ -6206,7 +6210,7 @@
         <v>1.56</v>
       </c>
     </row>
-    <row r="66" spans="1:26">
+    <row r="66" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <v>44261</v>
       </c>
@@ -6286,7 +6290,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="67" spans="1:26">
+    <row r="67" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
         <v>44262</v>
       </c>
@@ -6366,7 +6370,7 @@
         <v>2.1800000000000002</v>
       </c>
     </row>
-    <row r="68" spans="1:26">
+    <row r="68" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
         <v>44263</v>
       </c>
@@ -6446,7 +6450,7 @@
         <v>2.27</v>
       </c>
     </row>
-    <row r="69" spans="1:26">
+    <row r="69" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
         <v>44264</v>
       </c>
@@ -6526,7 +6530,7 @@
         <v>2.5299999999999998</v>
       </c>
     </row>
-    <row r="70" spans="1:26">
+    <row r="70" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
         <v>44265</v>
       </c>
@@ -6606,7 +6610,7 @@
         <v>2.37</v>
       </c>
     </row>
-    <row r="71" spans="1:26">
+    <row r="71" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
         <v>44266</v>
       </c>
@@ -6686,7 +6690,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="72" spans="1:26">
+    <row r="72" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
         <v>44267</v>
       </c>
@@ -6766,7 +6770,7 @@
         <v>2.02</v>
       </c>
     </row>
-    <row r="73" spans="1:26">
+    <row r="73" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
         <v>44268</v>
       </c>
@@ -6846,7 +6850,7 @@
         <v>2.39</v>
       </c>
     </row>
-    <row r="74" spans="1:26">
+    <row r="74" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
         <v>44269</v>
       </c>
@@ -6926,7 +6930,7 @@
         <v>2.82</v>
       </c>
     </row>
-    <row r="75" spans="1:26">
+    <row r="75" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
         <v>44270</v>
       </c>
@@ -7006,7 +7010,7 @@
         <v>2.73</v>
       </c>
     </row>
-    <row r="76" spans="1:26">
+    <row r="76" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
         <v>44271</v>
       </c>
@@ -7086,7 +7090,7 @@
         <v>2.85</v>
       </c>
     </row>
-    <row r="77" spans="1:26">
+    <row r="77" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
         <v>44272</v>
       </c>
@@ -7166,7 +7170,7 @@
         <v>3.08</v>
       </c>
     </row>
-    <row r="78" spans="1:26">
+    <row r="78" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
         <v>44273</v>
       </c>
@@ -7246,7 +7250,7 @@
         <v>3.45</v>
       </c>
     </row>
-    <row r="79" spans="1:26">
+    <row r="79" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
         <v>44274</v>
       </c>
@@ -7326,7 +7330,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="80" spans="1:26">
+    <row r="80" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
         <v>44275</v>
       </c>
@@ -7406,7 +7410,7 @@
         <v>3.16</v>
       </c>
     </row>
-    <row r="81" spans="1:26">
+    <row r="81" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
         <v>44276</v>
       </c>
@@ -7486,7 +7490,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="82" spans="1:26">
+    <row r="82" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
         <v>44277</v>
       </c>
@@ -7566,7 +7570,7 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="83" spans="1:26">
+    <row r="83" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
         <v>44278</v>
       </c>
@@ -7646,7 +7650,7 @@
         <v>2.65</v>
       </c>
     </row>
-    <row r="84" spans="1:26">
+    <row r="84" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
         <v>44279</v>
       </c>
@@ -7726,7 +7730,7 @@
         <v>2.67</v>
       </c>
     </row>
-    <row r="85" spans="1:26">
+    <row r="85" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
         <v>44280</v>
       </c>
@@ -7806,7 +7810,7 @@
         <v>2.63</v>
       </c>
     </row>
-    <row r="86" spans="1:26">
+    <row r="86" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
         <v>44281</v>
       </c>
@@ -7886,7 +7890,7 @@
         <v>2.63</v>
       </c>
     </row>
-    <row r="87" spans="1:26">
+    <row r="87" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
         <v>44282</v>
       </c>
@@ -7966,7 +7970,7 @@
         <v>2.15</v>
       </c>
     </row>
-    <row r="88" spans="1:26">
+    <row r="88" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
         <v>44283</v>
       </c>
@@ -8046,7 +8050,7 @@
         <v>2.54</v>
       </c>
     </row>
-    <row r="89" spans="1:26">
+    <row r="89" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
         <v>44284</v>
       </c>
@@ -8126,7 +8130,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="90" spans="1:26">
+    <row r="90" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
         <v>44285</v>
       </c>
@@ -8206,7 +8210,7 @@
         <v>2.2599999999999998</v>
       </c>
     </row>
-    <row r="91" spans="1:26">
+    <row r="91" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
         <v>44286</v>
       </c>
@@ -8286,7 +8290,7 @@
         <v>3.46</v>
       </c>
     </row>
-    <row r="92" spans="1:26">
+    <row r="92" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
         <v>44287</v>
       </c>
@@ -8366,7 +8370,7 @@
         <v>2.21</v>
       </c>
     </row>
-    <row r="93" spans="1:26">
+    <row r="93" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A93" s="2">
         <v>44288</v>
       </c>
@@ -8446,7 +8450,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="1:26">
+    <row r="94" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A94" s="2">
         <v>44289</v>
       </c>
@@ -8526,7 +8530,7 @@
         <v>2.96</v>
       </c>
     </row>
-    <row r="95" spans="1:26">
+    <row r="95" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A95" s="2">
         <v>44290</v>
       </c>
@@ -8606,7 +8610,7 @@
         <v>3.03</v>
       </c>
     </row>
-    <row r="96" spans="1:26">
+    <row r="96" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A96" s="2">
         <v>44291</v>
       </c>
@@ -8686,7 +8690,7 @@
         <v>3.08</v>
       </c>
     </row>
-    <row r="97" spans="1:26">
+    <row r="97" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A97" s="2">
         <v>44292</v>
       </c>
@@ -8766,7 +8770,7 @@
         <v>2.93</v>
       </c>
     </row>
-    <row r="98" spans="1:26">
+    <row r="98" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A98" s="2">
         <v>44293</v>
       </c>
@@ -8846,7 +8850,7 @@
         <v>3.14</v>
       </c>
     </row>
-    <row r="99" spans="1:26">
+    <row r="99" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A99" s="2">
         <v>44294</v>
       </c>
@@ -8926,7 +8930,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="100" spans="1:26">
+    <row r="100" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A100" s="2">
         <v>44295</v>
       </c>
@@ -9006,7 +9010,7 @@
         <v>2.88</v>
       </c>
     </row>
-    <row r="101" spans="1:26">
+    <row r="101" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A101" s="2">
         <v>44296</v>
       </c>
@@ -9086,7 +9090,7 @@
         <v>1.82</v>
       </c>
     </row>
-    <row r="102" spans="1:26">
+    <row r="102" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A102" s="2">
         <v>44297</v>
       </c>
@@ -9166,7 +9170,7 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="103" spans="1:26">
+    <row r="103" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A103" s="2">
         <v>44298</v>
       </c>
@@ -9246,7 +9250,7 @@
         <v>2.17</v>
       </c>
     </row>
-    <row r="104" spans="1:26">
+    <row r="104" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A104" s="2">
         <v>44299</v>
       </c>
@@ -9326,7 +9330,7 @@
         <v>1.67</v>
       </c>
     </row>
-    <row r="105" spans="1:26">
+    <row r="105" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A105" s="2">
         <v>44300</v>
       </c>
@@ -9406,7 +9410,7 @@
         <v>1.74</v>
       </c>
     </row>
-    <row r="106" spans="1:26">
+    <row r="106" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A106" s="2">
         <v>44301</v>
       </c>
@@ -9486,7 +9490,7 @@
         <v>2.2599999999999998</v>
       </c>
     </row>
-    <row r="107" spans="1:26">
+    <row r="107" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A107" s="2">
         <v>44302</v>
       </c>
@@ -9566,7 +9570,7 @@
         <v>3.17</v>
       </c>
     </row>
-    <row r="108" spans="1:26">
+    <row r="108" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A108" s="2">
         <v>44303</v>
       </c>
@@ -9646,7 +9650,7 @@
         <v>3.46</v>
       </c>
     </row>
-    <row r="109" spans="1:26">
+    <row r="109" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A109" s="2">
         <v>44304</v>
       </c>
@@ -9726,7 +9730,7 @@
         <v>3.39</v>
       </c>
     </row>
-    <row r="110" spans="1:26">
+    <row r="110" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A110" s="2">
         <v>44305</v>
       </c>
@@ -9806,7 +9810,7 @@
         <v>3.26</v>
       </c>
     </row>
-    <row r="111" spans="1:26">
+    <row r="111" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A111" s="2">
         <v>44306</v>
       </c>
@@ -9886,7 +9890,7 @@
         <v>2.57</v>
       </c>
     </row>
-    <row r="112" spans="1:26">
+    <row r="112" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A112" s="2">
         <v>44307</v>
       </c>
@@ -9966,7 +9970,7 @@
         <v>1.61</v>
       </c>
     </row>
-    <row r="113" spans="1:26">
+    <row r="113" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A113" s="2">
         <v>44308</v>
       </c>
@@ -10046,7 +10050,7 @@
         <v>3.21</v>
       </c>
     </row>
-    <row r="114" spans="1:26">
+    <row r="114" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A114" s="2">
         <v>44309</v>
       </c>
@@ -10126,7 +10130,7 @@
         <v>1.96</v>
       </c>
     </row>
-    <row r="115" spans="1:26">
+    <row r="115" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A115" s="2">
         <v>44310</v>
       </c>
@@ -10206,7 +10210,7 @@
         <v>2.15</v>
       </c>
     </row>
-    <row r="116" spans="1:26">
+    <row r="116" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A116" s="2">
         <v>44311</v>
       </c>
@@ -10286,7 +10290,7 @@
         <v>1.89</v>
       </c>
     </row>
-    <row r="117" spans="1:26">
+    <row r="117" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A117" s="2">
         <v>44312</v>
       </c>
@@ -10366,7 +10370,7 @@
         <v>2.21</v>
       </c>
     </row>
-    <row r="118" spans="1:26">
+    <row r="118" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A118" s="2">
         <v>44313</v>
       </c>
@@ -10446,7 +10450,7 @@
         <v>2.84</v>
       </c>
     </row>
-    <row r="119" spans="1:26">
+    <row r="119" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A119" s="2">
         <v>44314</v>
       </c>
@@ -10526,7 +10530,7 @@
         <v>2.17</v>
       </c>
     </row>
-    <row r="120" spans="1:26">
+    <row r="120" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A120" s="2">
         <v>44315</v>
       </c>
@@ -10606,7 +10610,7 @@
         <v>2.37</v>
       </c>
     </row>
-    <row r="121" spans="1:26">
+    <row r="121" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A121" s="2">
         <v>44316</v>
       </c>
@@ -10686,7 +10690,7 @@
         <v>2.82</v>
       </c>
     </row>
-    <row r="122" spans="1:26">
+    <row r="122" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A122" s="2">
         <v>44317</v>
       </c>
@@ -10766,7 +10770,7 @@
         <v>2.63</v>
       </c>
     </row>
-    <row r="123" spans="1:26">
+    <row r="123" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A123" s="2">
         <v>44318</v>
       </c>
@@ -10846,7 +10850,7 @@
         <v>3.09</v>
       </c>
     </row>
-    <row r="124" spans="1:26">
+    <row r="124" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A124" s="2">
         <v>44319</v>
       </c>
@@ -10926,7 +10930,7 @@
         <v>3.65</v>
       </c>
     </row>
-    <row r="125" spans="1:26">
+    <row r="125" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A125" s="2">
         <v>44320</v>
       </c>
@@ -11006,7 +11010,7 @@
         <v>3.52</v>
       </c>
     </row>
-    <row r="126" spans="1:26">
+    <row r="126" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A126" s="2">
         <v>44321</v>
       </c>
@@ -11086,7 +11090,7 @@
         <v>3.88</v>
       </c>
     </row>
-    <row r="127" spans="1:26">
+    <row r="127" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A127" s="2">
         <v>44322</v>
       </c>
@@ -11166,7 +11170,7 @@
         <v>3.69</v>
       </c>
     </row>
-    <row r="128" spans="1:26">
+    <row r="128" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A128" s="2">
         <v>44323</v>
       </c>
@@ -11246,7 +11250,7 @@
         <v>3.66</v>
       </c>
     </row>
-    <row r="129" spans="1:26">
+    <row r="129" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A129" s="2">
         <v>44324</v>
       </c>
@@ -11326,7 +11330,7 @@
         <v>3.48</v>
       </c>
     </row>
-    <row r="130" spans="1:26">
+    <row r="130" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A130" s="2">
         <v>44325</v>
       </c>
@@ -11406,7 +11410,7 @@
         <v>2.57</v>
       </c>
     </row>
-    <row r="131" spans="1:26">
+    <row r="131" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A131" s="2">
         <v>44326</v>
       </c>
@@ -11486,7 +11490,7 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="132" spans="1:26">
+    <row r="132" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A132" s="2">
         <v>44327</v>
       </c>
@@ -11566,7 +11570,7 @@
         <v>2.88</v>
       </c>
     </row>
-    <row r="133" spans="1:26">
+    <row r="133" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A133" s="2">
         <v>44328</v>
       </c>
@@ -11646,7 +11650,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="134" spans="1:26">
+    <row r="134" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A134" s="2">
         <v>44329</v>
       </c>
@@ -11726,7 +11730,7 @@
         <v>1.93</v>
       </c>
     </row>
-    <row r="135" spans="1:26">
+    <row r="135" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A135" s="2">
         <v>44330</v>
       </c>
@@ -11806,7 +11810,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="136" spans="1:26">
+    <row r="136" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A136" s="2">
         <v>44331</v>
       </c>
@@ -11886,7 +11890,7 @@
         <v>2.37</v>
       </c>
     </row>
-    <row r="137" spans="1:26">
+    <row r="137" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A137" s="2">
         <v>44332</v>
       </c>
@@ -11966,7 +11970,7 @@
         <v>2.48</v>
       </c>
     </row>
-    <row r="138" spans="1:26">
+    <row r="138" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A138" s="2">
         <v>44333</v>
       </c>
@@ -12046,7 +12050,7 @@
         <v>3.87</v>
       </c>
     </row>
-    <row r="139" spans="1:26">
+    <row r="139" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A139" s="2">
         <v>44334</v>
       </c>
@@ -12126,7 +12130,7 @@
         <v>2.46</v>
       </c>
     </row>
-    <row r="140" spans="1:26">
+    <row r="140" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A140" s="2">
         <v>44335</v>
       </c>
@@ -12206,7 +12210,7 @@
         <v>4.3099999999999996</v>
       </c>
     </row>
-    <row r="141" spans="1:26">
+    <row r="141" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A141" s="2">
         <v>44336</v>
       </c>
@@ -12286,7 +12290,7 @@
         <v>4.16</v>
       </c>
     </row>
-    <row r="142" spans="1:26">
+    <row r="142" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A142" s="2">
         <v>44337</v>
       </c>
@@ -12366,7 +12370,7 @@
         <v>3.66</v>
       </c>
     </row>
-    <row r="143" spans="1:26">
+    <row r="143" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A143" s="2">
         <v>44338</v>
       </c>
@@ -12446,7 +12450,7 @@
         <v>2.57</v>
       </c>
     </row>
-    <row r="144" spans="1:26">
+    <row r="144" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A144" s="2">
         <v>44339</v>
       </c>
@@ -12526,7 +12530,7 @@
         <v>3.41</v>
       </c>
     </row>
-    <row r="145" spans="1:26">
+    <row r="145" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A145" s="2">
         <v>44340</v>
       </c>
@@ -12606,7 +12610,7 @@
         <v>2.62</v>
       </c>
     </row>
-    <row r="146" spans="1:26">
+    <row r="146" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A146" s="2">
         <v>44341</v>
       </c>
@@ -12686,7 +12690,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="147" spans="1:26">
+    <row r="147" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A147" s="2">
         <v>44342</v>
       </c>
@@ -12766,7 +12770,7 @@
         <v>3.98</v>
       </c>
     </row>
-    <row r="148" spans="1:26">
+    <row r="148" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A148" s="2">
         <v>44343</v>
       </c>
@@ -12846,7 +12850,7 @@
         <v>2.97</v>
       </c>
     </row>
-    <row r="149" spans="1:26">
+    <row r="149" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A149" s="2">
         <v>44344</v>
       </c>
@@ -12926,7 +12930,7 @@
         <v>3.85</v>
       </c>
     </row>
-    <row r="150" spans="1:26">
+    <row r="150" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A150" s="2">
         <v>44345</v>
       </c>
@@ -13006,7 +13010,7 @@
         <v>3.95</v>
       </c>
     </row>
-    <row r="151" spans="1:26">
+    <row r="151" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A151" s="2">
         <v>44346</v>
       </c>
@@ -13086,7 +13090,7 @@
         <v>3.98</v>
       </c>
     </row>
-    <row r="152" spans="1:26">
+    <row r="152" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A152" s="2">
         <v>44347</v>
       </c>
@@ -13166,7 +13170,7 @@
         <v>3.42</v>
       </c>
     </row>
-    <row r="153" spans="1:26">
+    <row r="153" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A153" s="2">
         <v>44348</v>
       </c>
@@ -13246,7 +13250,7 @@
         <v>1.73</v>
       </c>
     </row>
-    <row r="154" spans="1:26">
+    <row r="154" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A154" s="2">
         <v>44349</v>
       </c>
@@ -13326,7 +13330,7 @@
         <v>2.73</v>
       </c>
     </row>
-    <row r="155" spans="1:26">
+    <row r="155" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A155" s="2">
         <v>44350</v>
       </c>
@@ -13406,7 +13410,7 @@
         <v>3.92</v>
       </c>
     </row>
-    <row r="156" spans="1:26">
+    <row r="156" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A156" s="2">
         <v>44351</v>
       </c>
@@ -13486,7 +13490,7 @@
         <v>3.78</v>
       </c>
     </row>
-    <row r="157" spans="1:26">
+    <row r="157" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A157" s="2">
         <v>44352</v>
       </c>
@@ -13566,7 +13570,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="158" spans="1:26">
+    <row r="158" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A158" s="2">
         <v>44353</v>
       </c>
@@ -13646,7 +13650,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="159" spans="1:26">
+    <row r="159" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A159" s="2">
         <v>44354</v>
       </c>
@@ -13726,7 +13730,7 @@
         <v>3.76</v>
       </c>
     </row>
-    <row r="160" spans="1:26">
+    <row r="160" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A160" s="2">
         <v>44355</v>
       </c>
@@ -13806,7 +13810,7 @@
         <v>4.0199999999999996</v>
       </c>
     </row>
-    <row r="161" spans="1:26">
+    <row r="161" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A161" s="2">
         <v>44356</v>
       </c>
@@ -13886,7 +13890,7 @@
         <v>4.1399999999999997</v>
       </c>
     </row>
-    <row r="162" spans="1:26">
+    <row r="162" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A162" s="2">
         <v>44357</v>
       </c>
@@ -13966,7 +13970,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="163" spans="1:26">
+    <row r="163" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A163" s="2">
         <v>44358</v>
       </c>
@@ -14046,7 +14050,7 @@
         <v>3.82</v>
       </c>
     </row>
-    <row r="164" spans="1:26">
+    <row r="164" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A164" s="2">
         <v>44359</v>
       </c>
@@ -14126,7 +14130,7 @@
         <v>3.27</v>
       </c>
     </row>
-    <row r="165" spans="1:26">
+    <row r="165" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A165" s="2">
         <v>44360</v>
       </c>
@@ -14206,7 +14210,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="166" spans="1:26">
+    <row r="166" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A166" s="2">
         <v>44361</v>
       </c>
@@ -14286,7 +14290,7 @@
         <v>4.1500000000000004</v>
       </c>
     </row>
-    <row r="167" spans="1:26">
+    <row r="167" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A167" s="2">
         <v>44362</v>
       </c>
@@ -14366,7 +14370,7 @@
         <v>4.1900000000000004</v>
       </c>
     </row>
-    <row r="168" spans="1:26">
+    <row r="168" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A168" s="2">
         <v>44363</v>
       </c>
@@ -14446,7 +14450,7 @@
         <v>3.41</v>
       </c>
     </row>
-    <row r="169" spans="1:26">
+    <row r="169" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A169" s="2">
         <v>44364</v>
       </c>
@@ -14526,7 +14530,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="170" spans="1:26">
+    <row r="170" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A170" s="2">
         <v>44365</v>
       </c>
@@ -14606,7 +14610,7 @@
         <v>3.05</v>
       </c>
     </row>
-    <row r="171" spans="1:26">
+    <row r="171" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A171" s="2">
         <v>44366</v>
       </c>
@@ -14686,7 +14690,7 @@
         <v>3.44</v>
       </c>
     </row>
-    <row r="172" spans="1:26">
+    <row r="172" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A172" s="2">
         <v>44367</v>
       </c>
@@ -14766,7 +14770,7 @@
         <v>3.05</v>
       </c>
     </row>
-    <row r="173" spans="1:26">
+    <row r="173" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A173" s="2">
         <v>44368</v>
       </c>
@@ -14846,7 +14850,7 @@
         <v>2.56</v>
       </c>
     </row>
-    <row r="174" spans="1:26">
+    <row r="174" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A174" s="2">
         <v>44369</v>
       </c>
@@ -14926,7 +14930,7 @@
         <v>3.39</v>
       </c>
     </row>
-    <row r="175" spans="1:26">
+    <row r="175" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A175" s="2">
         <v>44370</v>
       </c>
@@ -15006,7 +15010,7 @@
         <v>3.83</v>
       </c>
     </row>
-    <row r="176" spans="1:26">
+    <row r="176" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A176" s="2">
         <v>44371</v>
       </c>
@@ -15086,7 +15090,7 @@
         <v>4.13</v>
       </c>
     </row>
-    <row r="177" spans="1:26">
+    <row r="177" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A177" s="2">
         <v>44372</v>
       </c>
@@ -15166,7 +15170,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="178" spans="1:26">
+    <row r="178" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A178" s="2">
         <v>44373</v>
       </c>
@@ -15246,7 +15250,7 @@
         <v>3.93</v>
       </c>
     </row>
-    <row r="179" spans="1:26">
+    <row r="179" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A179" s="2">
         <v>44374</v>
       </c>
@@ -15326,7 +15330,7 @@
         <v>3.15</v>
       </c>
     </row>
-    <row r="180" spans="1:26">
+    <row r="180" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A180" s="2">
         <v>44375</v>
       </c>
@@ -15406,7 +15410,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="181" spans="1:26">
+    <row r="181" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A181" s="2">
         <v>44376</v>
       </c>
@@ -15486,7 +15490,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="182" spans="1:26">
+    <row r="182" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A182" s="2">
         <v>44377</v>
       </c>
@@ -15566,7 +15570,7 @@
         <v>3.71</v>
       </c>
     </row>
-    <row r="183" spans="1:26">
+    <row r="183" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A183" s="2">
         <v>44378</v>
       </c>
@@ -15646,7 +15650,7 @@
         <v>3.88</v>
       </c>
     </row>
-    <row r="184" spans="1:26">
+    <row r="184" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A184" s="2">
         <v>44379</v>
       </c>
@@ -15726,7 +15730,7 @@
         <v>4.07</v>
       </c>
     </row>
-    <row r="185" spans="1:26">
+    <row r="185" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A185" s="2">
         <v>44380</v>
       </c>
@@ -15806,7 +15810,7 @@
         <v>3.28</v>
       </c>
     </row>
-    <row r="186" spans="1:26">
+    <row r="186" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A186" s="2">
         <v>44381</v>
       </c>
@@ -15886,7 +15890,7 @@
         <v>4.07</v>
       </c>
     </row>
-    <row r="187" spans="1:26">
+    <row r="187" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A187" s="2">
         <v>44382</v>
       </c>
@@ -15966,7 +15970,7 @@
         <v>3.11</v>
       </c>
     </row>
-    <row r="188" spans="1:26">
+    <row r="188" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A188" s="2">
         <v>44383</v>
       </c>
@@ -16046,7 +16050,7 @@
         <v>3.02</v>
       </c>
     </row>
-    <row r="189" spans="1:26">
+    <row r="189" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A189" s="2">
         <v>44384</v>
       </c>
@@ -16126,7 +16130,7 @@
         <v>3.56</v>
       </c>
     </row>
-    <row r="190" spans="1:26">
+    <row r="190" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A190" s="2">
         <v>44385</v>
       </c>
@@ -16206,7 +16210,7 @@
         <v>4.17</v>
       </c>
     </row>
-    <row r="191" spans="1:26">
+    <row r="191" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A191" s="2">
         <v>44386</v>
       </c>
@@ -16286,7 +16290,7 @@
         <v>4.49</v>
       </c>
     </row>
-    <row r="192" spans="1:26">
+    <row r="192" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A192" s="2">
         <v>44387</v>
       </c>
@@ -16366,7 +16370,7 @@
         <v>4.59</v>
       </c>
     </row>
-    <row r="193" spans="1:26">
+    <row r="193" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A193" s="2">
         <v>44388</v>
       </c>
@@ -16446,7 +16450,7 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="194" spans="1:26">
+    <row r="194" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A194" s="2">
         <v>44389</v>
       </c>
@@ -16526,7 +16530,7 @@
         <v>3.34</v>
       </c>
     </row>
-    <row r="195" spans="1:26">
+    <row r="195" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A195" s="2">
         <v>44390</v>
       </c>
@@ -16606,7 +16610,7 @@
         <v>4.09</v>
       </c>
     </row>
-    <row r="196" spans="1:26">
+    <row r="196" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A196" s="2">
         <v>44391</v>
       </c>
@@ -16686,7 +16690,7 @@
         <v>4.55</v>
       </c>
     </row>
-    <row r="197" spans="1:26">
+    <row r="197" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A197" s="2">
         <v>44392</v>
       </c>
@@ -16766,7 +16770,7 @@
         <v>4.47</v>
       </c>
     </row>
-    <row r="198" spans="1:26">
+    <row r="198" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A198" s="2">
         <v>44393</v>
       </c>
@@ -16846,7 +16850,7 @@
         <v>4.43</v>
       </c>
     </row>
-    <row r="199" spans="1:26">
+    <row r="199" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A199" s="2">
         <v>44394</v>
       </c>
@@ -16926,7 +16930,7 @@
         <v>4.49</v>
       </c>
     </row>
-    <row r="200" spans="1:26">
+    <row r="200" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A200" s="2">
         <v>44395</v>
       </c>
@@ -17006,7 +17010,7 @@
         <v>4.12</v>
       </c>
     </row>
-    <row r="201" spans="1:26">
+    <row r="201" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A201" s="2">
         <v>44396</v>
       </c>
@@ -17086,7 +17090,7 @@
         <v>3.59</v>
       </c>
     </row>
-    <row r="202" spans="1:26">
+    <row r="202" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A202" s="2">
         <v>44397</v>
       </c>
@@ -17166,7 +17170,7 @@
         <v>3.82</v>
       </c>
     </row>
-    <row r="203" spans="1:26">
+    <row r="203" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A203" s="2">
         <v>44398</v>
       </c>
@@ -17246,7 +17250,7 @@
         <v>3.86</v>
       </c>
     </row>
-    <row r="204" spans="1:26">
+    <row r="204" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A204" s="2">
         <v>44399</v>
       </c>
@@ -17326,7 +17330,7 @@
         <v>3.98</v>
       </c>
     </row>
-    <row r="205" spans="1:26">
+    <row r="205" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A205" s="2">
         <v>44400</v>
       </c>
@@ -17406,7 +17410,7 @@
         <v>3.83</v>
       </c>
     </row>
-    <row r="206" spans="1:26">
+    <row r="206" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A206" s="2">
         <v>44401</v>
       </c>
@@ -17486,7 +17490,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="207" spans="1:26">
+    <row r="207" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A207" s="2">
         <v>44402</v>
       </c>
@@ -17566,7 +17570,7 @@
         <v>2.93</v>
       </c>
     </row>
-    <row r="208" spans="1:26">
+    <row r="208" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A208" s="2">
         <v>44403</v>
       </c>
@@ -17646,7 +17650,7 @@
         <v>4.3099999999999996</v>
       </c>
     </row>
-    <row r="209" spans="1:26">
+    <row r="209" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A209" s="2">
         <v>44404</v>
       </c>
@@ -17726,7 +17730,7 @@
         <v>4.1900000000000004</v>
       </c>
     </row>
-    <row r="210" spans="1:26">
+    <row r="210" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A210" s="2">
         <v>44405</v>
       </c>
@@ -17806,7 +17810,7 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="211" spans="1:26">
+    <row r="211" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A211" s="2">
         <v>44406</v>
       </c>
@@ -17886,7 +17890,7 @@
         <v>3.95</v>
       </c>
     </row>
-    <row r="212" spans="1:26">
+    <row r="212" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A212" s="2">
         <v>44407</v>
       </c>
@@ -17966,7 +17970,7 @@
         <v>3.96</v>
       </c>
     </row>
-    <row r="213" spans="1:26">
+    <row r="213" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A213" s="2">
         <v>44408</v>
       </c>
@@ -18046,7 +18050,7 @@
         <v>4.04</v>
       </c>
     </row>
-    <row r="214" spans="1:26">
+    <row r="214" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A214" s="2">
         <v>44409</v>
       </c>
@@ -18126,7 +18130,7 @@
         <v>3.59</v>
       </c>
     </row>
-    <row r="215" spans="1:26">
+    <row r="215" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A215" s="2">
         <v>44410</v>
       </c>
@@ -18206,7 +18210,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="216" spans="1:26">
+    <row r="216" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A216" s="2">
         <v>44411</v>
       </c>
@@ -18286,7 +18290,7 @@
         <v>3.68</v>
       </c>
     </row>
-    <row r="217" spans="1:26">
+    <row r="217" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A217" s="2">
         <v>44412</v>
       </c>
@@ -18366,7 +18370,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="218" spans="1:26">
+    <row r="218" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A218" s="2">
         <v>44413</v>
       </c>
@@ -18446,7 +18450,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="219" spans="1:26">
+    <row r="219" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A219" s="2">
         <v>44414</v>
       </c>
@@ -18526,7 +18530,7 @@
         <v>4.13</v>
       </c>
     </row>
-    <row r="220" spans="1:26">
+    <row r="220" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A220" s="2">
         <v>44415</v>
       </c>
@@ -18606,7 +18610,7 @@
         <v>3.69</v>
       </c>
     </row>
-    <row r="221" spans="1:26">
+    <row r="221" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A221" s="2">
         <v>44416</v>
       </c>
@@ -18686,7 +18690,7 @@
         <v>3.73</v>
       </c>
     </row>
-    <row r="222" spans="1:26">
+    <row r="222" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A222" s="2">
         <v>44417</v>
       </c>
@@ -18766,7 +18770,7 @@
         <v>3.81</v>
       </c>
     </row>
-    <row r="223" spans="1:26">
+    <row r="223" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A223" s="2">
         <v>44418</v>
       </c>
@@ -18846,7 +18850,7 @@
         <v>3.78</v>
       </c>
     </row>
-    <row r="224" spans="1:26">
+    <row r="224" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A224" s="2">
         <v>44419</v>
       </c>
@@ -18926,7 +18930,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="225" spans="1:26">
+    <row r="225" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A225" s="2">
         <v>44420</v>
       </c>
@@ -19006,7 +19010,7 @@
         <v>4.01</v>
       </c>
     </row>
-    <row r="226" spans="1:26">
+    <row r="226" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A226" s="2">
         <v>44421</v>
       </c>
@@ -19086,7 +19090,7 @@
         <v>4.12</v>
       </c>
     </row>
-    <row r="227" spans="1:26">
+    <row r="227" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A227" s="2">
         <v>44422</v>
       </c>
@@ -19166,7 +19170,7 @@
         <v>3.59</v>
       </c>
     </row>
-    <row r="228" spans="1:26">
+    <row r="228" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A228" s="2">
         <v>44423</v>
       </c>
@@ -19246,7 +19250,7 @@
         <v>3.85</v>
       </c>
     </row>
-    <row r="229" spans="1:26">
+    <row r="229" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A229" s="2">
         <v>44424</v>
       </c>
@@ -19326,7 +19330,7 @@
         <v>4.01</v>
       </c>
     </row>
-    <row r="230" spans="1:26">
+    <row r="230" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A230" s="2">
         <v>44425</v>
       </c>
@@ -19406,7 +19410,7 @@
         <v>4.03</v>
       </c>
     </row>
-    <row r="231" spans="1:26">
+    <row r="231" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A231" s="2">
         <v>44426</v>
       </c>
@@ -19486,7 +19490,7 @@
         <v>3.66</v>
       </c>
     </row>
-    <row r="232" spans="1:26">
+    <row r="232" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A232" s="2">
         <v>44427</v>
       </c>
@@ -19566,7 +19570,7 @@
         <v>3.63</v>
       </c>
     </row>
-    <row r="233" spans="1:26">
+    <row r="233" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A233" s="2">
         <v>44428</v>
       </c>
@@ -19646,7 +19650,7 @@
         <v>3.62</v>
       </c>
     </row>
-    <row r="234" spans="1:26">
+    <row r="234" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A234" s="2">
         <v>44429</v>
       </c>
@@ -19726,7 +19730,7 @@
         <v>3.74</v>
       </c>
     </row>
-    <row r="235" spans="1:26">
+    <row r="235" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A235" s="2">
         <v>44430</v>
       </c>
@@ -19806,7 +19810,7 @@
         <v>3.81</v>
       </c>
     </row>
-    <row r="236" spans="1:26">
+    <row r="236" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A236" s="2">
         <v>44431</v>
       </c>
@@ -19886,7 +19890,7 @@
         <v>3.81</v>
       </c>
     </row>
-    <row r="237" spans="1:26">
+    <row r="237" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A237" s="2">
         <v>44432</v>
       </c>
@@ -19966,7 +19970,7 @@
         <v>3.55</v>
       </c>
     </row>
-    <row r="238" spans="1:26">
+    <row r="238" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A238" s="2">
         <v>44433</v>
       </c>
@@ -20046,7 +20050,7 @@
         <v>2.79</v>
       </c>
     </row>
-    <row r="239" spans="1:26">
+    <row r="239" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A239" s="2">
         <v>44434</v>
       </c>
@@ -20126,7 +20130,7 @@
         <v>3.56</v>
       </c>
     </row>
-    <row r="240" spans="1:26">
+    <row r="240" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A240" s="2">
         <v>44435</v>
       </c>
@@ -20206,7 +20210,7 @@
         <v>3.51</v>
       </c>
     </row>
-    <row r="241" spans="1:26">
+    <row r="241" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A241" s="2">
         <v>44436</v>
       </c>
@@ -20286,7 +20290,7 @@
         <v>3.16</v>
       </c>
     </row>
-    <row r="242" spans="1:26">
+    <row r="242" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A242" s="2">
         <v>44437</v>
       </c>
@@ -20366,7 +20370,7 @@
         <v>3.01</v>
       </c>
     </row>
-    <row r="243" spans="1:26">
+    <row r="243" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A243" s="2">
         <v>44438</v>
       </c>
@@ -20446,7 +20450,7 @@
         <v>3.58</v>
       </c>
     </row>
-    <row r="244" spans="1:26">
+    <row r="244" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A244" s="2">
         <v>44439</v>
       </c>
@@ -20526,7 +20530,7 @@
         <v>3.62</v>
       </c>
     </row>
-    <row r="245" spans="1:26">
+    <row r="245" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A245" s="2">
         <v>44440</v>
       </c>
@@ -20606,7 +20610,7 @@
         <v>2.54</v>
       </c>
     </row>
-    <row r="246" spans="1:26">
+    <row r="246" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A246" s="2">
         <v>44441</v>
       </c>
@@ -20686,7 +20690,7 @@
         <v>3.28</v>
       </c>
     </row>
-    <row r="247" spans="1:26">
+    <row r="247" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A247" s="2">
         <v>44442</v>
       </c>
@@ -20766,7 +20770,7 @@
         <v>3.46</v>
       </c>
     </row>
-    <row r="248" spans="1:26">
+    <row r="248" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A248" s="2">
         <v>44443</v>
       </c>
@@ -20846,7 +20850,7 @@
         <v>3.49</v>
       </c>
     </row>
-    <row r="249" spans="1:26">
+    <row r="249" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A249" s="2">
         <v>44444</v>
       </c>
@@ -20926,7 +20930,7 @@
         <v>3.65</v>
       </c>
     </row>
-    <row r="250" spans="1:26">
+    <row r="250" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A250" s="2">
         <v>44445</v>
       </c>
@@ -21006,7 +21010,7 @@
         <v>3.62</v>
       </c>
     </row>
-    <row r="251" spans="1:26">
+    <row r="251" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A251" s="2">
         <v>44446</v>
       </c>
@@ -21086,7 +21090,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="252" spans="1:26">
+    <row r="252" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A252" s="2">
         <v>44447</v>
       </c>
@@ -21166,7 +21170,7 @@
         <v>2.58</v>
       </c>
     </row>
-    <row r="253" spans="1:26">
+    <row r="253" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A253" s="2">
         <v>44448</v>
       </c>
@@ -21246,7 +21250,7 @@
         <v>2.4700000000000002</v>
       </c>
     </row>
-    <row r="254" spans="1:26">
+    <row r="254" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A254" s="2">
         <v>44449</v>
       </c>
@@ -21326,7 +21330,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="255" spans="1:26">
+    <row r="255" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A255" s="2">
         <v>44450</v>
       </c>
@@ -21406,7 +21410,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="256" spans="1:26">
+    <row r="256" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A256" s="2">
         <v>44451</v>
       </c>
@@ -21486,7 +21490,7 @@
         <v>2.78</v>
       </c>
     </row>
-    <row r="257" spans="1:26">
+    <row r="257" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A257" s="2">
         <v>44452</v>
       </c>
@@ -21566,7 +21570,7 @@
         <v>2.44</v>
       </c>
     </row>
-    <row r="258" spans="1:26">
+    <row r="258" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A258" s="2">
         <v>44453</v>
       </c>
@@ -21646,327 +21650,327 @@
         <v>1.92</v>
       </c>
     </row>
-    <row r="259" spans="1:26">
+    <row r="259" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A259" s="2">
         <v>44454</v>
       </c>
       <c r="B259" s="3">
-        <v>12.780769230769231</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="C259" s="3">
-        <v>30.492307692307691</v>
+        <v>28.6</v>
       </c>
       <c r="D259" s="3">
-        <v>20.542307692307695</v>
-      </c>
-      <c r="E259" s="1">
-        <v>17.899999999999999</v>
-      </c>
-      <c r="F259" s="1">
+        <v>21</v>
+      </c>
+      <c r="E259" s="3">
+        <v>16.2</v>
+      </c>
+      <c r="F259" s="3">
         <v>13.9</v>
       </c>
-      <c r="G259" s="1">
-        <v>37.5</v>
-      </c>
-      <c r="H259" s="1">
-        <v>84</v>
-      </c>
-      <c r="I259" s="1">
-        <v>67.5</v>
-      </c>
-      <c r="J259" s="1">
-        <v>16.600000000000001</v>
-      </c>
-      <c r="K259" s="1">
-        <v>23.9</v>
-      </c>
-      <c r="L259" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="M259" s="1">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="N259" s="1">
-        <v>0</v>
-      </c>
-      <c r="O259" s="1">
-        <v>0</v>
-      </c>
-      <c r="P259" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q259" s="1">
-        <v>0</v>
-      </c>
-      <c r="R259" s="1">
-        <v>0</v>
-      </c>
-      <c r="S259" s="1">
-        <v>18000</v>
-      </c>
-      <c r="T259" s="1">
+      <c r="G259" s="3">
+        <v>39.5</v>
+      </c>
+      <c r="H259" s="3">
+        <v>95</v>
+      </c>
+      <c r="I259" s="3">
+        <v>87.5</v>
+      </c>
+      <c r="J259" s="3">
+        <v>16.2</v>
+      </c>
+      <c r="K259" s="3">
+        <v>8.1</v>
+      </c>
+      <c r="L259" s="3">
+        <v>0</v>
+      </c>
+      <c r="M259" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="N259" s="3">
+        <v>13</v>
+      </c>
+      <c r="O259" s="3">
+        <v>0</v>
+      </c>
+      <c r="P259" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q259" s="3">
+        <v>16</v>
+      </c>
+      <c r="R259" s="3">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="S259" s="3">
+        <v>29000</v>
+      </c>
+      <c r="T259" s="3">
         <v>4</v>
       </c>
-      <c r="U259" s="1">
-        <v>16.8</v>
-      </c>
-      <c r="V259" s="1">
-        <v>128000</v>
-      </c>
-      <c r="W259" s="1">
-        <v>5.36</v>
-      </c>
-      <c r="X259" s="1">
-        <v>5.6</v>
-      </c>
-      <c r="Y259" s="1">
-        <v>5.4</v>
-      </c>
-      <c r="Z259" s="1">
+      <c r="U259" s="3">
+        <v>15.4</v>
+      </c>
+      <c r="V259" s="3">
+        <v>670000</v>
+      </c>
+      <c r="W259" s="3">
+        <v>5.56</v>
+      </c>
+      <c r="X259" s="3">
+        <v>5.7</v>
+      </c>
+      <c r="Y259" s="3">
+        <v>5.3</v>
+      </c>
+      <c r="Z259" s="3">
         <v>1.92</v>
       </c>
     </row>
-    <row r="260" spans="1:26">
+    <row r="260" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A260" s="2">
         <v>44455</v>
       </c>
       <c r="B260" s="3">
-        <v>12.780769230769231</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="C260" s="3">
-        <v>30.492307692307691</v>
+        <v>28.6</v>
       </c>
       <c r="D260" s="3">
-        <v>20.542307692307695</v>
-      </c>
-      <c r="E260" s="1">
-        <v>17.899999999999999</v>
-      </c>
-      <c r="F260" s="1">
+        <v>21</v>
+      </c>
+      <c r="E260" s="3">
+        <v>16.2</v>
+      </c>
+      <c r="F260" s="3">
         <v>13.9</v>
       </c>
-      <c r="G260" s="1">
-        <v>37.5</v>
-      </c>
-      <c r="H260" s="1">
-        <v>84</v>
-      </c>
-      <c r="I260" s="1">
-        <v>67.5</v>
-      </c>
-      <c r="J260" s="1">
-        <v>16.600000000000001</v>
-      </c>
-      <c r="K260" s="1">
-        <v>23.9</v>
-      </c>
-      <c r="L260" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="M260" s="1">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="N260" s="1">
-        <v>0</v>
-      </c>
-      <c r="O260" s="1">
-        <v>0</v>
-      </c>
-      <c r="P260" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q260" s="1">
-        <v>0</v>
-      </c>
-      <c r="R260" s="1">
-        <v>0</v>
-      </c>
-      <c r="S260" s="1">
-        <v>18000</v>
-      </c>
-      <c r="T260" s="1">
+      <c r="G260" s="3">
+        <v>39.5</v>
+      </c>
+      <c r="H260" s="3">
+        <v>95</v>
+      </c>
+      <c r="I260" s="3">
+        <v>87.5</v>
+      </c>
+      <c r="J260" s="3">
+        <v>16.2</v>
+      </c>
+      <c r="K260" s="3">
+        <v>8.1</v>
+      </c>
+      <c r="L260" s="3">
+        <v>0</v>
+      </c>
+      <c r="M260" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="N260" s="3">
+        <v>13</v>
+      </c>
+      <c r="O260" s="3">
+        <v>0</v>
+      </c>
+      <c r="P260" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q260" s="3">
+        <v>16</v>
+      </c>
+      <c r="R260" s="3">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="S260" s="3">
+        <v>29000</v>
+      </c>
+      <c r="T260" s="3">
         <v>4</v>
       </c>
-      <c r="U260" s="1">
-        <v>16.8</v>
-      </c>
-      <c r="V260" s="1">
-        <v>128000</v>
-      </c>
-      <c r="W260" s="1">
-        <v>5.36</v>
-      </c>
-      <c r="X260" s="1">
-        <v>5.6</v>
-      </c>
-      <c r="Y260" s="1">
-        <v>5.4</v>
-      </c>
-      <c r="Z260" s="1">
+      <c r="U260" s="3">
+        <v>15.4</v>
+      </c>
+      <c r="V260" s="3">
+        <v>670000</v>
+      </c>
+      <c r="W260" s="3">
+        <v>5.56</v>
+      </c>
+      <c r="X260" s="3">
+        <v>5.7</v>
+      </c>
+      <c r="Y260" s="3">
+        <v>5.3</v>
+      </c>
+      <c r="Z260" s="3">
         <v>1.92</v>
       </c>
     </row>
-    <row r="261" spans="1:26">
+    <row r="261" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A261" s="2">
         <v>44456</v>
       </c>
       <c r="B261" s="3">
-        <v>12.780769230769231</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="C261" s="3">
-        <v>30.492307692307691</v>
+        <v>28.6</v>
       </c>
       <c r="D261" s="3">
-        <v>20.542307692307695</v>
-      </c>
-      <c r="E261" s="1">
-        <v>17.899999999999999</v>
-      </c>
-      <c r="F261" s="1">
+        <v>21</v>
+      </c>
+      <c r="E261" s="3">
+        <v>16.2</v>
+      </c>
+      <c r="F261" s="3">
         <v>13.9</v>
       </c>
-      <c r="G261" s="1">
-        <v>37.5</v>
-      </c>
-      <c r="H261" s="1">
-        <v>84</v>
-      </c>
-      <c r="I261" s="1">
-        <v>67.5</v>
-      </c>
-      <c r="J261" s="1">
-        <v>16.600000000000001</v>
-      </c>
-      <c r="K261" s="1">
-        <v>23.9</v>
-      </c>
-      <c r="L261" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="M261" s="1">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="N261" s="1">
-        <v>0</v>
-      </c>
-      <c r="O261" s="1">
-        <v>0</v>
-      </c>
-      <c r="P261" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q261" s="1">
-        <v>0</v>
-      </c>
-      <c r="R261" s="1">
-        <v>0</v>
-      </c>
-      <c r="S261" s="1">
-        <v>18000</v>
-      </c>
-      <c r="T261" s="1">
+      <c r="G261" s="3">
+        <v>39.5</v>
+      </c>
+      <c r="H261" s="3">
+        <v>95</v>
+      </c>
+      <c r="I261" s="3">
+        <v>87.5</v>
+      </c>
+      <c r="J261" s="3">
+        <v>16.2</v>
+      </c>
+      <c r="K261" s="3">
+        <v>8.1</v>
+      </c>
+      <c r="L261" s="3">
+        <v>0</v>
+      </c>
+      <c r="M261" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="N261" s="3">
+        <v>13</v>
+      </c>
+      <c r="O261" s="3">
+        <v>0</v>
+      </c>
+      <c r="P261" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q261" s="3">
+        <v>16</v>
+      </c>
+      <c r="R261" s="3">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="S261" s="3">
+        <v>29000</v>
+      </c>
+      <c r="T261" s="3">
         <v>4</v>
       </c>
-      <c r="U261" s="1">
-        <v>16.8</v>
-      </c>
-      <c r="V261" s="1">
-        <v>128000</v>
-      </c>
-      <c r="W261" s="1">
-        <v>5.36</v>
-      </c>
-      <c r="X261" s="1">
-        <v>5.6</v>
-      </c>
-      <c r="Y261" s="1">
-        <v>5.4</v>
-      </c>
-      <c r="Z261" s="1">
+      <c r="U261" s="3">
+        <v>15.4</v>
+      </c>
+      <c r="V261" s="3">
+        <v>670000</v>
+      </c>
+      <c r="W261" s="3">
+        <v>5.56</v>
+      </c>
+      <c r="X261" s="3">
+        <v>5.7</v>
+      </c>
+      <c r="Y261" s="3">
+        <v>5.3</v>
+      </c>
+      <c r="Z261" s="3">
         <v>1.92</v>
       </c>
     </row>
-    <row r="262" spans="1:26">
+    <row r="262" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A262" s="2">
         <v>44457</v>
       </c>
       <c r="B262" s="3">
-        <v>12.780769230769231</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="C262" s="3">
-        <v>30.492307692307691</v>
+        <v>28.6</v>
       </c>
       <c r="D262" s="3">
-        <v>20.542307692307695</v>
-      </c>
-      <c r="E262" s="1">
-        <v>17.899999999999999</v>
-      </c>
-      <c r="F262" s="1">
+        <v>21</v>
+      </c>
+      <c r="E262" s="3">
+        <v>16.2</v>
+      </c>
+      <c r="F262" s="3">
         <v>13.9</v>
       </c>
-      <c r="G262" s="1">
-        <v>37.5</v>
-      </c>
-      <c r="H262" s="1">
-        <v>84</v>
-      </c>
-      <c r="I262" s="1">
-        <v>67.5</v>
-      </c>
-      <c r="J262" s="1">
-        <v>16.600000000000001</v>
-      </c>
-      <c r="K262" s="1">
-        <v>23.9</v>
-      </c>
-      <c r="L262" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="M262" s="1">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="N262" s="1">
-        <v>0</v>
-      </c>
-      <c r="O262" s="1">
-        <v>0</v>
-      </c>
-      <c r="P262" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q262" s="1">
-        <v>0</v>
-      </c>
-      <c r="R262" s="1">
-        <v>0</v>
-      </c>
-      <c r="S262" s="1">
-        <v>18000</v>
-      </c>
-      <c r="T262" s="1">
+      <c r="G262" s="3">
+        <v>39.5</v>
+      </c>
+      <c r="H262" s="3">
+        <v>95</v>
+      </c>
+      <c r="I262" s="3">
+        <v>87.5</v>
+      </c>
+      <c r="J262" s="3">
+        <v>16.2</v>
+      </c>
+      <c r="K262" s="3">
+        <v>8.1</v>
+      </c>
+      <c r="L262" s="3">
+        <v>0</v>
+      </c>
+      <c r="M262" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="N262" s="3">
+        <v>13</v>
+      </c>
+      <c r="O262" s="3">
+        <v>0</v>
+      </c>
+      <c r="P262" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q262" s="3">
+        <v>16</v>
+      </c>
+      <c r="R262" s="3">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="S262" s="3">
+        <v>29000</v>
+      </c>
+      <c r="T262" s="3">
         <v>4</v>
       </c>
-      <c r="U262" s="1">
-        <v>16.8</v>
-      </c>
-      <c r="V262" s="1">
-        <v>128000</v>
-      </c>
-      <c r="W262" s="1">
-        <v>5.36</v>
-      </c>
-      <c r="X262" s="1">
-        <v>5.6</v>
-      </c>
-      <c r="Y262" s="1">
-        <v>5.4</v>
-      </c>
-      <c r="Z262" s="1">
+      <c r="U262" s="3">
+        <v>15.4</v>
+      </c>
+      <c r="V262" s="3">
+        <v>670000</v>
+      </c>
+      <c r="W262" s="3">
+        <v>5.56</v>
+      </c>
+      <c r="X262" s="3">
+        <v>5.7</v>
+      </c>
+      <c r="Y262" s="3">
+        <v>5.3</v>
+      </c>
+      <c r="Z262" s="3">
         <v>1.92</v>
       </c>
     </row>
-    <row r="263" spans="1:26">
+    <row r="263" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A263" s="2">
         <v>44458</v>
       </c>
@@ -22046,7 +22050,7 @@
         <v>1.92</v>
       </c>
     </row>
-    <row r="264" spans="1:26">
+    <row r="264" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A264" s="2">
         <v>44459</v>
       </c>
@@ -22126,7 +22130,7 @@
         <v>3.15</v>
       </c>
     </row>
-    <row r="265" spans="1:26">
+    <row r="265" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A265" s="2">
         <v>44460</v>
       </c>
@@ -22206,7 +22210,7 @@
         <v>3.32</v>
       </c>
     </row>
-    <row r="266" spans="1:26">
+    <row r="266" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A266" s="2">
         <v>44461</v>
       </c>
@@ -22286,7 +22290,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="267" spans="1:26">
+    <row r="267" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A267" s="2">
         <v>44462</v>
       </c>
@@ -22366,7 +22370,7 @@
         <v>1.92</v>
       </c>
     </row>
-    <row r="268" spans="1:26">
+    <row r="268" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A268" s="2">
         <v>44463</v>
       </c>
@@ -22446,7 +22450,7 @@
         <v>2.4900000000000002</v>
       </c>
     </row>
-    <row r="269" spans="1:26">
+    <row r="269" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A269" s="2">
         <v>44464</v>
       </c>
@@ -22526,7 +22530,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="270" spans="1:26">
+    <row r="270" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A270" s="2">
         <v>44465</v>
       </c>
@@ -22606,7 +22610,7 @@
         <v>2.15</v>
       </c>
     </row>
-    <row r="271" spans="1:26">
+    <row r="271" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A271" s="2">
         <v>44466</v>
       </c>
@@ -22686,7 +22690,7 @@
         <v>2.66</v>
       </c>
     </row>
-    <row r="272" spans="1:26">
+    <row r="272" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A272" s="2">
         <v>44467</v>
       </c>
@@ -22766,7 +22770,7 @@
         <v>2.95</v>
       </c>
     </row>
-    <row r="273" spans="1:26">
+    <row r="273" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A273" s="2">
         <v>44468</v>
       </c>
@@ -22846,7 +22850,7 @@
         <v>3.02</v>
       </c>
     </row>
-    <row r="274" spans="1:26">
+    <row r="274" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A274" s="2">
         <v>44469</v>
       </c>
@@ -22926,7 +22930,7 @@
         <v>2.72</v>
       </c>
     </row>
-    <row r="275" spans="1:26">
+    <row r="275" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A275" s="2">
         <v>44470</v>
       </c>
@@ -23006,7 +23010,7 @@
         <v>2.57</v>
       </c>
     </row>
-    <row r="276" spans="1:26">
+    <row r="276" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A276" s="2">
         <v>44471</v>
       </c>
@@ -23086,7 +23090,7 @@
         <v>1.87</v>
       </c>
     </row>
-    <row r="277" spans="1:26">
+    <row r="277" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A277" s="2">
         <v>44472</v>
       </c>
@@ -23166,7 +23170,7 @@
         <v>2.5099999999999998</v>
       </c>
     </row>
-    <row r="278" spans="1:26">
+    <row r="278" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A278" s="2">
         <v>44473</v>
       </c>
@@ -23246,7 +23250,7 @@
         <v>1.82</v>
       </c>
     </row>
-    <row r="279" spans="1:26">
+    <row r="279" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A279" s="2">
         <v>44474</v>
       </c>
@@ -23326,7 +23330,7 @@
         <v>1.88</v>
       </c>
     </row>
-    <row r="280" spans="1:26">
+    <row r="280" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A280" s="2">
         <v>44475</v>
       </c>
@@ -23406,7 +23410,7 @@
         <v>2.74</v>
       </c>
     </row>
-    <row r="281" spans="1:26">
+    <row r="281" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A281" s="2">
         <v>44476</v>
       </c>
@@ -23486,7 +23490,7 @@
         <v>2.61</v>
       </c>
     </row>
-    <row r="282" spans="1:26">
+    <row r="282" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A282" s="2">
         <v>44477</v>
       </c>
@@ -23566,7 +23570,7 @@
         <v>2.59</v>
       </c>
     </row>
-    <row r="283" spans="1:26">
+    <row r="283" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A283" s="2">
         <v>44478</v>
       </c>
@@ -23646,7 +23650,7 @@
         <v>2.34</v>
       </c>
     </row>
-    <row r="284" spans="1:26">
+    <row r="284" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A284" s="2">
         <v>44479</v>
       </c>
@@ -23726,7 +23730,7 @@
         <v>2.46</v>
       </c>
     </row>
-    <row r="285" spans="1:26">
+    <row r="285" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A285" s="2">
         <v>44480</v>
       </c>
@@ -23806,7 +23810,7 @@
         <v>2.72</v>
       </c>
     </row>
-    <row r="286" spans="1:26">
+    <row r="286" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A286" s="2">
         <v>44481</v>
       </c>
@@ -23886,7 +23890,7 @@
         <v>2.69</v>
       </c>
     </row>
-    <row r="287" spans="1:26">
+    <row r="287" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A287" s="2">
         <v>44482</v>
       </c>
@@ -23966,7 +23970,7 @@
         <v>2.59</v>
       </c>
     </row>
-    <row r="288" spans="1:26">
+    <row r="288" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A288" s="2">
         <v>44483</v>
       </c>
@@ -24046,7 +24050,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="289" spans="1:26">
+    <row r="289" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A289" s="2">
         <v>44484</v>
       </c>
@@ -24126,7 +24130,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="290" spans="1:26">
+    <row r="290" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A290" s="2">
         <v>44485</v>
       </c>
@@ -24206,7 +24210,7 @@
         <v>1.79</v>
       </c>
     </row>
-    <row r="291" spans="1:26">
+    <row r="291" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A291" s="2">
         <v>44486</v>
       </c>
@@ -24286,7 +24290,7 @@
         <v>1.79</v>
       </c>
     </row>
-    <row r="292" spans="1:26">
+    <row r="292" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A292" s="2">
         <v>44487</v>
       </c>
@@ -24366,7 +24370,7 @@
         <v>2.09</v>
       </c>
     </row>
-    <row r="293" spans="1:26">
+    <row r="293" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A293" s="2">
         <v>44488</v>
       </c>
@@ -24446,7 +24450,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="294" spans="1:26">
+    <row r="294" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A294" s="2">
         <v>44489</v>
       </c>
@@ -24526,7 +24530,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="295" spans="1:26">
+    <row r="295" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A295" s="2">
         <v>44490</v>
       </c>
@@ -24606,7 +24610,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="296" spans="1:26">
+    <row r="296" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A296" s="2">
         <v>44491</v>
       </c>
@@ -24686,7 +24690,7 @@
         <v>2.59</v>
       </c>
     </row>
-    <row r="297" spans="1:26">
+    <row r="297" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A297" s="2">
         <v>44492</v>
       </c>
@@ -24766,7 +24770,7 @@
         <v>2.09</v>
       </c>
     </row>
-    <row r="298" spans="1:26">
+    <row r="298" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A298" s="2">
         <v>44493</v>
       </c>
@@ -24846,7 +24850,7 @@
         <v>2.11</v>
       </c>
     </row>
-    <row r="299" spans="1:26">
+    <row r="299" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A299" s="2">
         <v>44494</v>
       </c>
@@ -24926,7 +24930,7 @@
         <v>2.16</v>
       </c>
     </row>
-    <row r="300" spans="1:26">
+    <row r="300" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A300" s="2">
         <v>44495</v>
       </c>
@@ -25006,7 +25010,7 @@
         <v>2.19</v>
       </c>
     </row>
-    <row r="301" spans="1:26">
+    <row r="301" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A301" s="2">
         <v>44496</v>
       </c>
@@ -25086,7 +25090,7 @@
         <v>2.0099999999999998</v>
       </c>
     </row>
-    <row r="302" spans="1:26">
+    <row r="302" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A302" s="2">
         <v>44497</v>
       </c>
@@ -25166,7 +25170,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="303" spans="1:26">
+    <row r="303" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A303" s="2">
         <v>44498</v>
       </c>
@@ -25246,7 +25250,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="304" spans="1:26">
+    <row r="304" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A304" s="2">
         <v>44499</v>
       </c>
@@ -25326,7 +25330,7 @@
         <v>1.76</v>
       </c>
     </row>
-    <row r="305" spans="1:26">
+    <row r="305" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A305" s="2">
         <v>44500</v>
       </c>
@@ -25406,7 +25410,7 @@
         <v>1.73</v>
       </c>
     </row>
-    <row r="306" spans="1:26">
+    <row r="306" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A306" s="2">
         <v>44501</v>
       </c>
@@ -25486,7 +25490,7 @@
         <v>1.73</v>
       </c>
     </row>
-    <row r="307" spans="1:26">
+    <row r="307" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A307" s="2">
         <v>44502</v>
       </c>
@@ -25566,7 +25570,7 @@
         <v>1.63</v>
       </c>
     </row>
-    <row r="308" spans="1:26">
+    <row r="308" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A308" s="2">
         <v>44503</v>
       </c>
@@ -25646,7 +25650,7 @@
         <v>1.78</v>
       </c>
     </row>
-    <row r="309" spans="1:26">
+    <row r="309" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A309" s="2">
         <v>44504</v>
       </c>
@@ -25726,7 +25730,7 @@
         <v>1.73</v>
       </c>
     </row>
-    <row r="310" spans="1:26">
+    <row r="310" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A310" s="2">
         <v>44505</v>
       </c>
@@ -25806,7 +25810,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="311" spans="1:26">
+    <row r="311" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A311" s="2">
         <v>44506</v>
       </c>
@@ -25886,7 +25890,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="312" spans="1:26">
+    <row r="312" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A312" s="2">
         <v>44507</v>
       </c>
@@ -25966,7 +25970,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="313" spans="1:26">
+    <row r="313" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A313" s="2">
         <v>44508</v>
       </c>
@@ -26046,7 +26050,7 @@
         <v>1.74</v>
       </c>
     </row>
-    <row r="314" spans="1:26">
+    <row r="314" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A314" s="2">
         <v>44509</v>
       </c>
@@ -26126,7 +26130,7 @@
         <v>1.73</v>
       </c>
     </row>
-    <row r="315" spans="1:26">
+    <row r="315" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A315" s="2">
         <v>44510</v>
       </c>
@@ -26206,7 +26210,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="316" spans="1:26">
+    <row r="316" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A316" s="2">
         <v>44511</v>
       </c>
@@ -26286,7 +26290,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="317" spans="1:26">
+    <row r="317" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A317" s="2">
         <v>44512</v>
       </c>
@@ -26366,7 +26370,7 @@
         <v>1.59</v>
       </c>
     </row>
-    <row r="318" spans="1:26">
+    <row r="318" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A318" s="2">
         <v>44513</v>
       </c>
@@ -26446,7 +26450,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="319" spans="1:26">
+    <row r="319" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A319" s="2">
         <v>44514</v>
       </c>
@@ -26526,7 +26530,7 @@
         <v>1.59</v>
       </c>
     </row>
-    <row r="320" spans="1:26">
+    <row r="320" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A320" s="2">
         <v>44515</v>
       </c>
@@ -26606,7 +26610,7 @@
         <v>1.54</v>
       </c>
     </row>
-    <row r="321" spans="1:26">
+    <row r="321" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A321" s="2">
         <v>44516</v>
       </c>
@@ -26686,7 +26690,7 @@
         <v>1.55</v>
       </c>
     </row>
-    <row r="322" spans="1:26">
+    <row r="322" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A322" s="2">
         <v>44517</v>
       </c>
@@ -26766,7 +26770,7 @@
         <v>1.54</v>
       </c>
     </row>
-    <row r="323" spans="1:26">
+    <row r="323" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A323" s="2">
         <v>44518</v>
       </c>
@@ -26846,7 +26850,7 @@
         <v>1.79</v>
       </c>
     </row>
-    <row r="324" spans="1:26">
+    <row r="324" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A324" s="2">
         <v>44519</v>
       </c>
@@ -26926,7 +26930,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="325" spans="1:26">
+    <row r="325" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A325" s="2">
         <v>44520</v>
       </c>
@@ -27006,7 +27010,7 @@
         <v>1.98</v>
       </c>
     </row>
-    <row r="326" spans="1:26">
+    <row r="326" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A326" s="2">
         <v>44521</v>
       </c>
@@ -27086,7 +27090,7 @@
         <v>1.54</v>
       </c>
     </row>
-    <row r="327" spans="1:26">
+    <row r="327" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A327" s="2">
         <v>44522</v>
       </c>
@@ -27166,7 +27170,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="328" spans="1:26">
+    <row r="328" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A328" s="2">
         <v>44523</v>
       </c>
@@ -27246,7 +27250,7 @@
         <v>1.24</v>
       </c>
     </row>
-    <row r="329" spans="1:26">
+    <row r="329" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A329" s="2">
         <v>44524</v>
       </c>
@@ -27326,7 +27330,7 @@
         <v>1.34</v>
       </c>
     </row>
-    <row r="330" spans="1:26">
+    <row r="330" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A330" s="2">
         <v>44525</v>
       </c>
@@ -27406,7 +27410,7 @@
         <v>1.24</v>
       </c>
     </row>
-    <row r="331" spans="1:26">
+    <row r="331" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A331" s="2">
         <v>44526</v>
       </c>
@@ -27486,7 +27490,7 @@
         <v>1.36</v>
       </c>
     </row>
-    <row r="332" spans="1:26">
+    <row r="332" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A332" s="2">
         <v>44527</v>
       </c>
@@ -27566,7 +27570,7 @@
         <v>1.42</v>
       </c>
     </row>
-    <row r="333" spans="1:26">
+    <row r="333" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A333" s="2">
         <v>44528</v>
       </c>
@@ -27646,7 +27650,7 @@
         <v>1.37</v>
       </c>
     </row>
-    <row r="334" spans="1:26">
+    <row r="334" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A334" s="2">
         <v>44529</v>
       </c>
@@ -27726,7 +27730,7 @@
         <v>1.56</v>
       </c>
     </row>
-    <row r="335" spans="1:26">
+    <row r="335" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A335" s="2">
         <v>44530</v>
       </c>
@@ -27806,7 +27810,7 @@
         <v>1.35</v>
       </c>
     </row>
-    <row r="336" spans="1:26">
+    <row r="336" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A336" s="2">
         <v>44531</v>
       </c>
@@ -27886,7 +27890,7 @@
         <v>1.23</v>
       </c>
     </row>
-    <row r="337" spans="1:26">
+    <row r="337" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A337" s="2">
         <v>44532</v>
       </c>
@@ -27966,7 +27970,7 @@
         <v>1.52</v>
       </c>
     </row>
-    <row r="338" spans="1:26">
+    <row r="338" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A338" s="2">
         <v>44533</v>
       </c>
@@ -28046,7 +28050,7 @@
         <v>1.27</v>
       </c>
     </row>
-    <row r="339" spans="1:26">
+    <row r="339" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A339" s="2">
         <v>44534</v>
       </c>
@@ -28126,7 +28130,7 @@
         <v>1.31</v>
       </c>
     </row>
-    <row r="340" spans="1:26">
+    <row r="340" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A340" s="2">
         <v>44535</v>
       </c>
@@ -28206,7 +28210,7 @@
         <v>1.51</v>
       </c>
     </row>
-    <row r="341" spans="1:26">
+    <row r="341" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A341" s="2">
         <v>44536</v>
       </c>
@@ -28286,7 +28290,7 @@
         <v>1.51</v>
       </c>
     </row>
-    <row r="342" spans="1:26">
+    <row r="342" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A342" s="2">
         <v>44537</v>
       </c>
@@ -28366,7 +28370,7 @@
         <v>1.52</v>
       </c>
     </row>
-    <row r="343" spans="1:26">
+    <row r="343" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A343" s="2">
         <v>44538</v>
       </c>
@@ -28446,7 +28450,7 @@
         <v>1.46</v>
       </c>
     </row>
-    <row r="344" spans="1:26">
+    <row r="344" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A344" s="2">
         <v>44539</v>
       </c>
@@ -28526,7 +28530,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="345" spans="1:26">
+    <row r="345" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A345" s="2">
         <v>44540</v>
       </c>
@@ -28606,7 +28610,7 @@
         <v>1.51</v>
       </c>
     </row>
-    <row r="346" spans="1:26">
+    <row r="346" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A346" s="2">
         <v>44541</v>
       </c>
@@ -28686,7 +28690,7 @@
         <v>1.55</v>
       </c>
     </row>
-    <row r="347" spans="1:26">
+    <row r="347" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A347" s="2">
         <v>44542</v>
       </c>
@@ -28766,7 +28770,7 @@
         <v>1.47</v>
       </c>
     </row>
-    <row r="348" spans="1:26">
+    <row r="348" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A348" s="2">
         <v>44543</v>
       </c>
@@ -28846,7 +28850,7 @@
         <v>1.54</v>
       </c>
     </row>
-    <row r="349" spans="1:26">
+    <row r="349" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A349" s="2">
         <v>44544</v>
       </c>
@@ -28926,7 +28930,7 @@
         <v>1.51</v>
       </c>
     </row>
-    <row r="350" spans="1:26">
+    <row r="350" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A350" s="2">
         <v>44545</v>
       </c>
@@ -29006,7 +29010,7 @@
         <v>1.27</v>
       </c>
     </row>
-    <row r="351" spans="1:26">
+    <row r="351" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A351" s="2">
         <v>44546</v>
       </c>
@@ -29086,7 +29090,7 @@
         <v>1.39</v>
       </c>
     </row>
-    <row r="352" spans="1:26">
+    <row r="352" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A352" s="2">
         <v>44547</v>
       </c>
@@ -29166,7 +29170,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="353" spans="1:26">
+    <row r="353" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A353" s="2">
         <v>44548</v>
       </c>
@@ -29246,7 +29250,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="354" spans="1:26">
+    <row r="354" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A354" s="2">
         <v>44549</v>
       </c>
@@ -29326,7 +29330,7 @@
         <v>2.09</v>
       </c>
     </row>
-    <row r="355" spans="1:26">
+    <row r="355" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A355" s="2">
         <v>44550</v>
       </c>
@@ -29406,7 +29410,7 @@
         <v>1.49</v>
       </c>
     </row>
-    <row r="356" spans="1:26">
+    <row r="356" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A356" s="2">
         <v>44551</v>
       </c>
@@ -29486,7 +29490,7 @@
         <v>1.76</v>
       </c>
     </row>
-    <row r="357" spans="1:26">
+    <row r="357" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A357" s="2">
         <v>44552</v>
       </c>
@@ -29566,7 +29570,7 @@
         <v>1.56</v>
       </c>
     </row>
-    <row r="358" spans="1:26">
+    <row r="358" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A358" s="2">
         <v>44553</v>
       </c>
@@ -29646,7 +29650,7 @@
         <v>1.52</v>
       </c>
     </row>
-    <row r="359" spans="1:26">
+    <row r="359" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A359" s="2">
         <v>44554</v>
       </c>
@@ -29726,7 +29730,7 @@
         <v>1.35</v>
       </c>
     </row>
-    <row r="360" spans="1:26">
+    <row r="360" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A360" s="2">
         <v>44555</v>
       </c>
@@ -29806,7 +29810,7 @@
         <v>1.48</v>
       </c>
     </row>
-    <row r="361" spans="1:26">
+    <row r="361" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A361" s="2">
         <v>44556</v>
       </c>
@@ -29886,7 +29890,7 @@
         <v>1.48</v>
       </c>
     </row>
-    <row r="362" spans="1:26">
+    <row r="362" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A362" s="2">
         <v>44557</v>
       </c>
@@ -29966,7 +29970,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="363" spans="1:26">
+    <row r="363" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A363" s="2">
         <v>44558</v>
       </c>
@@ -30046,7 +30050,7 @@
         <v>1.61</v>
       </c>
     </row>
-    <row r="364" spans="1:26">
+    <row r="364" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A364" s="2">
         <v>44559</v>
       </c>
@@ -30126,7 +30130,7 @@
         <v>1.56</v>
       </c>
     </row>
-    <row r="365" spans="1:26">
+    <row r="365" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A365" s="2">
         <v>44560</v>
       </c>
@@ -30206,7 +30210,7 @@
         <v>1.45</v>
       </c>
     </row>
-    <row r="366" spans="1:26">
+    <row r="366" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A366" s="2">
         <v>44561</v>
       </c>
